--- a/fantasyAnalyticsodds_teams.xlsx
+++ b/fantasyAnalyticsodds_teams.xlsx
@@ -495,19 +495,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1359021688970928</v>
+        <v>0.1290669188120514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6137517305029995</v>
+        <v>0.6243821721751837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2503461005999077</v>
+        <v>0.2465509090127649</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1902630364559298</v>
+        <v>0.1923097090299566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5198443619014477</v>
+        <v>0.5558084076010306</v>
       </c>
     </row>
     <row r="3">
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2607079992176804</v>
+        <v>0.2468272944638588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4365343242714649</v>
+        <v>0.4375574765495678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3027576765108547</v>
+        <v>0.3156152289865735</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3128495990612165</v>
+        <v>0.3208754828030164</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4171327987482887</v>
+        <v>0.458393546861452</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4276704769412693</v>
+        <v>0.4157043879907622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2688214426487979</v>
+        <v>0.2655889145496536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.303508080409933</v>
+        <v>0.3187066974595843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.357747167023115</v>
+        <v>0.3824480369515012</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2767279556678802</v>
+        <v>0.2941907976550009</v>
       </c>
     </row>
     <row r="5">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5571635311143271</v>
+        <v>0.55</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1722141823444284</v>
+        <v>0.175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2706222865412446</v>
+        <v>0.275</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4510371442354077</v>
+        <v>0.4812500000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2187478066730615</v>
+        <v>0.240625</v>
       </c>
     </row>
     <row r="6">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3898003558015417</v>
+        <v>0.3912443305068034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.329314093694406</v>
+        <v>0.3092092289489253</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2808855505040522</v>
+        <v>0.2995464405442713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2938494989888545</v>
+        <v>0.2949380337666672</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2546695657903406</v>
+        <v>0.2556129625977782</v>
       </c>
     </row>
     <row r="7">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6615684524080637</v>
+        <v>0.6420160150730099</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1088752653105842</v>
+        <v>0.1365991521431936</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2295562822813522</v>
+        <v>0.2213848327837965</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5205784543538862</v>
+        <v>0.5042010589578612</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1587764285779353</v>
+        <v>0.1750952768380936</v>
       </c>
     </row>
     <row r="8">
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6550984597387405</v>
+        <v>0.6693441579662535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1187365958276467</v>
+        <v>0.1065033798310945</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2261649444336128</v>
+        <v>0.2241524622026523</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5490709633648403</v>
+        <v>0.5771590344140149</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1899785533242347</v>
+        <v>0.192771117494281</v>
       </c>
     </row>
     <row r="9">
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5835764902042518</v>
+        <v>0.5588353298561357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1800750312630263</v>
+        <v>0.1848455321831833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.236348478532722</v>
+        <v>0.2563191379606809</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4297245064231309</v>
+        <v>0.4038641879632578</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2100875364735307</v>
+        <v>0.1922393534705107</v>
       </c>
     </row>
     <row r="10">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1785479271770125</v>
+        <v>0.1747707696582384</v>
       </c>
       <c r="F10" t="n">
-        <v>0.568107041017767</v>
+        <v>0.5654348430119479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2533450318052204</v>
+        <v>0.2597943873298139</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2083059150398479</v>
+        <v>0.2219952039538825</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4686883088396578</v>
+        <v>0.4806196165601557</v>
       </c>
     </row>
     <row r="11">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2539208364451083</v>
+        <v>0.2563861758076634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4697535474234503</v>
+        <v>0.4517280240420736</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2763256161314414</v>
+        <v>0.291885800150263</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2169762343757276</v>
+        <v>0.2371572126220887</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3131690316156335</v>
+        <v>0.3449559456321289</v>
       </c>
     </row>
     <row r="12">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2344015243374329</v>
+        <v>0.2433029840534709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4829378139615451</v>
+        <v>0.4781327298563234</v>
       </c>
       <c r="G12" t="n">
-        <v>0.282660661701022</v>
+        <v>0.2785642860902058</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2219506350539203</v>
+        <v>0.2219507591249908</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3844184999133899</v>
+        <v>0.384418714804484</v>
       </c>
     </row>
     <row r="13">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.06218276677923602</v>
+        <v>0.06208088107673131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7836039716082588</v>
+        <v>0.7887325054830617</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1542132616125053</v>
+        <v>0.149186613440207</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09638328850781583</v>
+        <v>0.09622536566893353</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5354627139323102</v>
+        <v>0.5562159865256273</v>
       </c>
     </row>
     <row r="14">
@@ -915,19 +915,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5844155844155844</v>
+        <v>0.5686527430908143</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.1716112742541922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.2597359826549935</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.5031534742531288</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.2135606968496614</v>
       </c>
     </row>
     <row r="15">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6180910495661476</v>
+        <v>0.5875440658049353</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1454891239748009</v>
+        <v>0.1586368977673326</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2364198264590515</v>
+        <v>0.2538190364277321</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4503234789696218</v>
+        <v>0.4326460848199979</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1576132176393676</v>
+        <v>0.1730584339279992</v>
       </c>
     </row>
     <row r="16">
@@ -985,19 +985,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3467539003522899</v>
+        <v>0.3474763724110195</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3598389531957725</v>
+        <v>0.3539111200482606</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2934071464519376</v>
+        <v>0.2986125075407199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.317857741989599</v>
+        <v>0.3185200080434346</v>
       </c>
       <c r="I16" t="n">
-        <v>0.317857741989599</v>
+        <v>0.3185200080434346</v>
       </c>
     </row>
     <row r="17">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5657627796668286</v>
+        <v>0.5745568300312826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.171786153098837</v>
+        <v>0.1684045881126173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2624510672343344</v>
+        <v>0.2570385818561001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4724119210218019</v>
+        <v>0.4883733055265902</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2182041205643427</v>
+        <v>0.2255765845388407</v>
       </c>
     </row>
     <row r="18">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.4232969024293562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2797440398663571</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2845528455284553</v>
+        <v>0.2969590577042868</v>
       </c>
       <c r="H18" t="n">
-        <v>0.375609756097561</v>
+        <v>0.3669646150338144</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2504065040650407</v>
+        <v>0.2757476964396949</v>
       </c>
     </row>
     <row r="19">
@@ -1090,19 +1090,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1328671328671329</v>
+        <v>0.1181988742964353</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6643356643356643</v>
+        <v>0.6566604127579738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2027972027972028</v>
+        <v>0.225140712945591</v>
       </c>
       <c r="H19" t="n">
-        <v>0.107031857031857</v>
+        <v>0.1181988742964353</v>
       </c>
       <c r="I19" t="n">
-        <v>0.437857596948506</v>
+        <v>0.4298140883506737</v>
       </c>
     </row>
     <row r="20">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6803939122649957</v>
+        <v>0.6725158473615717</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1190689346463742</v>
+        <v>0.1083497754082532</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2005371530886303</v>
+        <v>0.219134377230175</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5291952650949966</v>
+        <v>0.5328677479094419</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1731911776674534</v>
+        <v>0.1772996324862325</v>
       </c>
     </row>
     <row r="21">
@@ -1160,19 +1160,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6472530553334648</v>
+        <v>0.629757785467128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1407893507221697</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2119575939443654</v>
+        <v>0.2249134948096886</v>
       </c>
       <c r="H21" t="n">
-        <v>0.459241453546125</v>
+        <v>0.4498269896193772</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1483703157610558</v>
+        <v>0.157439446366782</v>
       </c>
     </row>
     <row r="22">
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3748878923766816</v>
+        <v>0.375385840884198</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3354260089686098</v>
+        <v>0.3300806531912776</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2896860986547085</v>
+        <v>0.2945335059245245</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2941428078647809</v>
+        <v>0.2945335059245245</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2811659192825112</v>
+        <v>0.2815393806631485</v>
       </c>
     </row>
     <row r="23">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3693322341302556</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3363561417971971</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2943116240725474</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2897837529329698</v>
+        <v>0.2944498539435249</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2897837529329698</v>
+        <v>0.2944498539435249</v>
       </c>
     </row>
     <row r="24">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2890115403913698</v>
+        <v>0.3000767459708366</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4174611138986453</v>
+        <v>0.4174980813507291</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2935273457099849</v>
+        <v>0.2824251726784344</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2504766683391871</v>
+        <v>0.2560654898951139</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3130958354239839</v>
+        <v>0.3200818623688923</v>
       </c>
     </row>
     <row r="25">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2900602995526163</v>
+        <v>0.3267336389349459</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4108150165337483</v>
+        <v>0.3855456939432362</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2991246839136355</v>
+        <v>0.287720667121818</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2734854252924667</v>
+        <v>0.2753897813880258</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3639539880317998</v>
+        <v>0.350496085402942</v>
       </c>
     </row>
     <row r="26">
@@ -1335,19 +1335,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6045340050377833</v>
+        <v>0.572601334017445</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1581863979848867</v>
+        <v>0.1570035915854284</v>
       </c>
       <c r="G26" t="n">
-        <v>0.23727959697733</v>
+        <v>0.2703950743971267</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5186439278193005</v>
+        <v>0.5096451664029614</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2109151973131822</v>
+        <v>0.2248088378359483</v>
       </c>
     </row>
     <row r="27">
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5844155844155844</v>
+        <v>0.5885015844273428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.1466727025803531</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.2648257129923042</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.5209686157225657</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.2118605703938434</v>
       </c>
     </row>
     <row r="28">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.06242369984536501</v>
+        <v>0.04375267263171</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7935216082037926</v>
+        <v>0.8157277948284916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1440546919508423</v>
+        <v>0.1405195325397985</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09363554976804753</v>
+        <v>0.09625587978976199</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6119970573075001</v>
+        <v>0.6291233973187059</v>
       </c>
     </row>
     <row r="29">
@@ -1440,19 +1440,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.3258041871412644</v>
+        <v>0.325105358217941</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3592517652888467</v>
+        <v>0.3552077062010837</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3149440475698889</v>
+        <v>0.3196869355809753</v>
       </c>
       <c r="H29" t="n">
-        <v>0.343575324621697</v>
+        <v>0.3487493842701549</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3592517652888467</v>
+        <v>0.3646619037045346</v>
       </c>
     </row>
     <row r="30">
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.6918595241948534</v>
+        <v>0.7033125112384586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0990451529373685</v>
+        <v>0.1113916925314091</v>
       </c>
       <c r="G30" t="n">
-        <v>0.209095322867778</v>
+        <v>0.1852957962301324</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5141688267240441</v>
+        <v>0.5265235739872614</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1344184218435715</v>
+        <v>0.1482366369841059</v>
       </c>
     </row>
     <row r="31">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5174015407530791</v>
+        <v>0.4725035795725726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2115092012748851</v>
+        <v>0.236835127538845</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2710892579720358</v>
+        <v>0.2906612928885825</v>
       </c>
       <c r="H31" t="n">
-        <v>0.437439484454876</v>
+        <v>0.4359919393328737</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2222556272057107</v>
+        <v>0.2215201539335617</v>
       </c>
     </row>
     <row r="32">
@@ -1545,19 +1545,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5477308294209702</v>
+        <v>0.5295061508290249</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1862284820031299</v>
+        <v>0.178463184168301</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2660406885758998</v>
+        <v>0.2920306650026743</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4434011476264997</v>
+        <v>0.4818505972544126</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2150444364932216</v>
+        <v>0.2569869852023534</v>
       </c>
     </row>
     <row r="33">
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5072616073735895</v>
+        <v>0.528196981731533</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2167284003790163</v>
+        <v>0.2001588562351072</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2760099922473943</v>
+        <v>0.2716441620333598</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4468733207814955</v>
+        <v>0.4527402700555997</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2502490596376375</v>
+        <v>0.2535345512311358</v>
       </c>
     </row>
     <row r="34">
@@ -1615,19 +1615,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.06802721088435373</v>
+        <v>0.06331084587441618</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7784120394395433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1700680272108843</v>
+        <v>0.1582771146860405</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.09496626881162427</v>
       </c>
       <c r="I34" t="n">
-        <v>0.570287995437696</v>
+        <v>0.5686602922851753</v>
       </c>
     </row>
     <row r="35">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1348314606741573</v>
+        <v>0.1227168949771689</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6292134831460674</v>
+        <v>0.6503995433789954</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2359550561797753</v>
+        <v>0.2268835616438356</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1716036772216547</v>
+        <v>0.177381693648817</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4719101123595505</v>
+        <v>0.510784981711253</v>
       </c>
     </row>
     <row r="36">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1106870925922545</v>
+        <v>0.1051846196557468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6720287764529735</v>
+        <v>0.6761868406440866</v>
       </c>
       <c r="G36" t="n">
-        <v>0.217284130954772</v>
+        <v>0.2186285397001666</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1176050358792704</v>
+        <v>0.1183326971127152</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4480191843019823</v>
+        <v>0.4733307884508606</v>
       </c>
     </row>
     <row r="37">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7752122889037305</v>
+        <v>0.7755791985681615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07690105905925006</v>
+        <v>0.07885055185442975</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1478866520370193</v>
+        <v>0.1455702495774088</v>
       </c>
       <c r="H37" t="n">
-        <v>0.503279182324935</v>
+        <v>0.4953961373053178</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08738756711278416</v>
+        <v>0.08601878384119609</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsodds_teams.xlsx
+++ b/fantasyAnalyticsodds_teams.xlsx
@@ -495,19 +495,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1290669188120514</v>
+        <v>0.1145348207516517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6243821721751837</v>
+        <v>0.6742120654175242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2465509090127649</v>
+        <v>0.2112531138308242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1923097090299566</v>
+        <v>0.1810740975692779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5558084076010306</v>
+        <v>0.5432222927078337</v>
       </c>
     </row>
     <row r="3">
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2468272944638588</v>
+        <v>0.2149042246129625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4375574765495678</v>
+        <v>0.484912096562582</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3156152289865735</v>
+        <v>0.3001836788244555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3208754828030164</v>
+        <v>0.2865389661506166</v>
       </c>
       <c r="I3" t="n">
-        <v>0.458393546861452</v>
+        <v>0.4727892941485174</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4157043879907622</v>
+        <v>0.3924050632911393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2655889145496536</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3187066974595843</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3824480369515012</v>
+        <v>0.3957025848314009</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2941907976550009</v>
+        <v>0.3139240506329114</v>
       </c>
     </row>
     <row r="5">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.55</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.175</v>
+        <v>0.1569620253164557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.275</v>
+        <v>0.2354430379746835</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4812500000000001</v>
+        <v>0.5146295912014941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.240625</v>
+        <v>0.1883544303797468</v>
       </c>
     </row>
     <row r="6">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3912443305068034</v>
+        <v>0.4247787610619468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3092092289489253</v>
+        <v>0.2831858407079646</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2995464405442713</v>
+        <v>0.2920353982300884</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2949380337666672</v>
+        <v>0.3115044247787611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2556129625977782</v>
+        <v>0.2336283185840708</v>
       </c>
     </row>
     <row r="7">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6420160150730099</v>
+        <v>0.6629834254143647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1365991521431936</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2213848327837965</v>
+        <v>0.2209944751381216</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5042010589578612</v>
+        <v>0.5156537753222836</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1750952768380936</v>
+        <v>0.1546961325966851</v>
       </c>
     </row>
     <row r="8">
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6693441579662535</v>
+        <v>0.7263043215107129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1065033798310945</v>
+        <v>0.08049872896743736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2241524622026523</v>
+        <v>0.1931969495218497</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5771590344140149</v>
+        <v>0.6526923970332759</v>
       </c>
       <c r="I8" t="n">
-        <v>0.192771117494281</v>
+        <v>0.1839970947827139</v>
       </c>
     </row>
     <row r="9">
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5588353298561357</v>
+        <v>0.4851944345344274</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1848455321831833</v>
+        <v>0.2365322868355333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2563191379606809</v>
+        <v>0.2782732786300393</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4038641879632578</v>
+        <v>0.3942204780592223</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1922393534705107</v>
+        <v>0.2489813545637193</v>
       </c>
     </row>
     <row r="10">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1747707696582384</v>
+        <v>0.1631269012865954</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5654348430119479</v>
+        <v>0.5665485194384751</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2597943873298139</v>
+        <v>0.2703245792749295</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2219952039538825</v>
+        <v>0.2185071656956705</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4806196165601557</v>
+        <v>0.4953591766818081</v>
       </c>
     </row>
     <row r="11">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2563861758076634</v>
+        <v>0.2333965844402277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4517280240420736</v>
+        <v>0.4554079696394688</v>
       </c>
       <c r="G11" t="n">
-        <v>0.291885800150263</v>
+        <v>0.3111954459203036</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2371572126220887</v>
+        <v>0.2489563567362429</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3449559456321289</v>
+        <v>0.3734345351043644</v>
       </c>
     </row>
     <row r="12">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2433029840534709</v>
+        <v>0.2459198813056379</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4781327298563234</v>
+        <v>0.4792284866468842</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2785642860902058</v>
+        <v>0.2748516320474777</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2219507591249908</v>
+        <v>0.233623887240356</v>
       </c>
       <c r="I12" t="n">
-        <v>0.384418714804484</v>
+        <v>0.3737982195845697</v>
       </c>
     </row>
     <row r="13">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.06208088107673131</v>
+        <v>0.07885055185442975</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7887325054830617</v>
+        <v>0.7755791985681615</v>
       </c>
       <c r="G13" t="n">
-        <v>0.149186613440207</v>
+        <v>0.1455702495774088</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09622536566893353</v>
+        <v>0.0946206622253157</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5562159865256273</v>
+        <v>0.5469402440769694</v>
       </c>
     </row>
     <row r="14">
@@ -915,19 +915,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5686527430908143</v>
+        <v>0.629757785467128</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1716112742541922</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2597359826549935</v>
+        <v>0.2249134948096886</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5031534742531288</v>
+        <v>0.4498269896193772</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2135606968496614</v>
+        <v>0.1642846396870769</v>
       </c>
     </row>
     <row r="15">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5875440658049353</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1586368977673326</v>
+        <v>0.1569620253164557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2538190364277321</v>
+        <v>0.2354430379746835</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4326460848199979</v>
+        <v>0.4185654008438819</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1730584339279992</v>
+        <v>0.144888023369036</v>
       </c>
     </row>
     <row r="16">
@@ -985,19 +985,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3474763724110195</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3539111200482606</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2986125075407199</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3185200080434346</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3185200080434346</v>
+        <v>0.2768166089965398</v>
       </c>
     </row>
     <row r="17">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5745568300312826</v>
+        <v>0.6261180679785331</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1684045881126173</v>
+        <v>0.1359570661896243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2570385818561001</v>
+        <v>0.2379248658318426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4883733055265902</v>
+        <v>0.4982719703284662</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2255765845388407</v>
+        <v>0.2003577817531306</v>
       </c>
     </row>
     <row r="18">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4232969024293562</v>
+        <v>0.4378536585365854</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2797440398663571</v>
+        <v>0.2768780487804878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2969590577042868</v>
+        <v>0.2852682926829269</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3669646150338144</v>
+        <v>0.3579412037466383</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2757476964396949</v>
+        <v>0.2689672473867596</v>
       </c>
     </row>
     <row r="19">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6725158473615717</v>
+        <v>0.7046170962358612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1083497754082532</v>
+        <v>0.09512330799184128</v>
       </c>
       <c r="G20" t="n">
-        <v>0.219134377230175</v>
+        <v>0.2002595957722974</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5328677479094419</v>
+        <v>0.5696006466577322</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1772996324862325</v>
+        <v>0.1654318399858109</v>
       </c>
     </row>
     <row r="21">
@@ -1160,19 +1160,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.629757785467128</v>
+        <v>0.7137192704203013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1453287197231834</v>
+        <v>0.105471847739889</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2249134948096886</v>
+        <v>0.1808088818398097</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4498269896193772</v>
+        <v>0.5187140052781425</v>
       </c>
       <c r="I21" t="n">
-        <v>0.157439446366782</v>
+        <v>0.1356066613798572</v>
       </c>
     </row>
     <row r="22">
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.375385840884198</v>
+        <v>0.3756449948400413</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3300806531912776</v>
+        <v>0.3353973168214655</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2945335059245245</v>
+        <v>0.2889576883384933</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2945335059245245</v>
+        <v>0.2889576883384933</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2815393806631485</v>
+        <v>0.2762095550294421</v>
       </c>
     </row>
     <row r="23">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3417721518987342</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3544303797468354</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.3033707865168539</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2944498539435249</v>
+        <v>0.2855254461335096</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2944498539435249</v>
+        <v>0.2855254461335096</v>
       </c>
     </row>
     <row r="24">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3000767459708366</v>
+        <v>0.3042084168336673</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4174980813507291</v>
+        <v>0.4100200400801604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2824251726784344</v>
+        <v>0.2857715430861724</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2560654898951139</v>
+        <v>0.2514789579158317</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3200818623688923</v>
+        <v>0.3143486973947896</v>
       </c>
     </row>
     <row r="25">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3267336389349459</v>
+        <v>0.3056915790318696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3855456939432362</v>
+        <v>0.3981697037810067</v>
       </c>
       <c r="G25" t="n">
-        <v>0.287720667121818</v>
+        <v>0.2961387171871237</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2753897813880258</v>
+        <v>0.2787187926467047</v>
       </c>
       <c r="I25" t="n">
-        <v>0.350496085402942</v>
+        <v>0.3445977799995621</v>
       </c>
     </row>
     <row r="26">
@@ -1335,19 +1335,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.572601334017445</v>
+        <v>0.551417931824692</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1570035915854284</v>
+        <v>0.1744485820681753</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2703950743971267</v>
+        <v>0.2741334861071326</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5096451664029614</v>
+        <v>0.4920344622435713</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2248088378359483</v>
+        <v>0.2524913687828853</v>
       </c>
     </row>
     <row r="27">
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5885015844273428</v>
+        <v>0.5835193829916785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1466727025803531</v>
+        <v>0.1644002435559164</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2648257129923042</v>
+        <v>0.2520803734524051</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5209686157225657</v>
+        <v>0.450143524022152</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2118605703938434</v>
+        <v>0.1890602800893038</v>
       </c>
     </row>
     <row r="28">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.04375267263171</v>
+        <v>0.05511069241639189</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8157277948284916</v>
+        <v>0.800753650494583</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1405195325397985</v>
+        <v>0.1441356570890249</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09625587978976199</v>
+        <v>0.08517107009806019</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6291233973187059</v>
+        <v>0.5967399815787656</v>
       </c>
     </row>
     <row r="29">
@@ -1440,19 +1440,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.325105358217941</v>
+        <v>0.3352601156069364</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3552077062010837</v>
+        <v>0.3352601156069364</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3196869355809753</v>
+        <v>0.3294797687861272</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3487493842701549</v>
+        <v>0.3633046880151212</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3646619037045346</v>
+        <v>0.3633046880151212</v>
       </c>
     </row>
     <row r="30">
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7033125112384586</v>
+        <v>0.7194244604316548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113916925314091</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1852957962301324</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5265235739872614</v>
+        <v>0.5600310171024857</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1482366369841059</v>
+        <v>0.1336073997944502</v>
       </c>
     </row>
     <row r="31">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.4725035795725726</v>
+        <v>0.4851944345344274</v>
       </c>
       <c r="F31" t="n">
-        <v>0.236835127538845</v>
+        <v>0.2365322868355333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2906612928885825</v>
+        <v>0.2782732786300393</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4359919393328737</v>
+        <v>0.3784516589368533</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2215201539335617</v>
+        <v>0.2523011059579022</v>
       </c>
     </row>
     <row r="32">
@@ -1545,19 +1545,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5295061508290249</v>
+        <v>0.5509073598568996</v>
       </c>
       <c r="F32" t="n">
-        <v>0.178463184168301</v>
+        <v>0.1662387120971697</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2920306650026743</v>
+        <v>0.2828539280459306</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4818505972544126</v>
+        <v>0.4961050570439097</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2569869852023534</v>
+        <v>0.2493580681457546</v>
       </c>
     </row>
     <row r="33">
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.528196981731533</v>
+        <v>0.5240103828682673</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2001588562351072</v>
+        <v>0.1985723556132382</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2716441620333598</v>
+        <v>0.2774172615184945</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4527402700555997</v>
+        <v>0.4491517567442291</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2535345512311358</v>
+        <v>0.2515249837767683</v>
       </c>
     </row>
     <row r="34">
@@ -1615,19 +1615,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.06331084587441618</v>
+        <v>0.0632603406326034</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7784120394395433</v>
+        <v>0.7907542579075426</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1582771146860405</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09496626881162427</v>
+        <v>0.08626410086264101</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5686602922851753</v>
+        <v>0.5485000632884688</v>
       </c>
     </row>
     <row r="35">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1227168949771689</v>
+        <v>0.1142732049036777</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6503995433789954</v>
+        <v>0.6698774080560419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2268835616438356</v>
+        <v>0.2158493870402802</v>
       </c>
       <c r="H35" t="n">
-        <v>0.177381693648817</v>
+        <v>0.1618870402802101</v>
       </c>
       <c r="I35" t="n">
-        <v>0.510784981711253</v>
+        <v>0.5307771812465906</v>
       </c>
     </row>
     <row r="36">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1051846196557468</v>
+        <v>0.1109874826147427</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6761868406440866</v>
+        <v>0.7093184979137691</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2186285397001666</v>
+        <v>0.1796940194714882</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1183326971127152</v>
+        <v>0.1179242002781641</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4733307884508606</v>
+        <v>0.5155156296313186</v>
       </c>
     </row>
     <row r="37">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7755791985681615</v>
+        <v>0.7990867579908676</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07885055185442975</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1455702495774088</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4953961373053178</v>
+        <v>0.523991316715323</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08601878384119609</v>
+        <v>0.07376185458377239</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsodds_teams.xlsx
+++ b/fantasyAnalyticsodds_teams.xlsx
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3924050632911393</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.3162217659137577</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3957025848314009</v>
+        <v>0.3607092386848947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3139240506329114</v>
+        <v>0.3607092386848947</v>
       </c>
     </row>
     <row r="5">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.5639396346306593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1569620253164557</v>
+        <v>0.1691818903891978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2354430379746835</v>
+        <v>0.266878474980143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5146295912014941</v>
+        <v>0.4737092930897538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1883544303797468</v>
+        <v>0.2188033686326807</v>
       </c>
     </row>
     <row r="6">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4247787610619468</v>
+        <v>0.5766312594840668</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2831858407079646</v>
+        <v>0.17298937784522</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2920353982300884</v>
+        <v>0.2503793626707132</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3115044247787611</v>
+        <v>0.3997653689700463</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2336283185840708</v>
+        <v>0.1585735963581184</v>
       </c>
     </row>
     <row r="7">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6629834254143647</v>
+        <v>0.6203473945409429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1160220994475138</v>
+        <v>0.1265508684863524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2209944751381216</v>
+        <v>0.2531017369727047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5156537753222836</v>
+        <v>0.5486309327443022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1546961325966851</v>
+        <v>0.2109181141439206</v>
       </c>
     </row>
     <row r="8">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1631269012865954</v>
+        <v>0.1366626453918467</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5665485194384751</v>
+        <v>0.6097921835522273</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2703245792749295</v>
+        <v>0.2535451710559261</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2185071656956705</v>
+        <v>0.2225107736749467</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4953591766818081</v>
+        <v>0.5352620277847329</v>
       </c>
     </row>
     <row r="11">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2333965844402277</v>
+        <v>0.2235674772988206</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4554079696394688</v>
+        <v>0.47124517273771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3111954459203036</v>
+        <v>0.3051873499634694</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2489563567362429</v>
+        <v>0.2913151976924026</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3734345351043644</v>
+        <v>0.4577810249452041</v>
       </c>
     </row>
     <row r="12">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2459198813056379</v>
+        <v>0.1902237926972909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4792284866468842</v>
+        <v>0.5594817432273262</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2748516320474777</v>
+        <v>0.2502944640753828</v>
       </c>
       <c r="H12" t="n">
-        <v>0.233623887240356</v>
+        <v>0.1902237926972909</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3737982195845697</v>
+        <v>0.4227195393273132</v>
       </c>
     </row>
     <row r="13">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.07885055185442975</v>
+        <v>0.08630759247242052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7755791985681615</v>
+        <v>0.7138221933809216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1455702495774088</v>
+        <v>0.199870214146658</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0946206622253157</v>
+        <v>0.1356262167423751</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5469402440769694</v>
+        <v>0.5684931240698358</v>
       </c>
     </row>
     <row r="14">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.5985037406483791</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1569620253164557</v>
+        <v>0.172069825436409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2354430379746835</v>
+        <v>0.229426433915212</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4185654008438819</v>
+        <v>0.4282626766417291</v>
       </c>
       <c r="I15" t="n">
-        <v>0.144888023369036</v>
+        <v>0.1927182044887781</v>
       </c>
     </row>
     <row r="16">
@@ -985,19 +985,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.392156862745098</v>
+        <v>0.2795282845034089</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.2568638290031325</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.4636078864934587</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.4319982578689046</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2768166089965398</v>
+        <v>0.4319982578689046</v>
       </c>
     </row>
     <row r="17">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4378536585365854</v>
+        <v>0.4228527011270889</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2768780487804878</v>
+        <v>0.2798289933929266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2852682926829269</v>
+        <v>0.2973183054799844</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3579412037466383</v>
+        <v>0.3805674310143801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2689672473867596</v>
+        <v>0.2883086598593789</v>
       </c>
     </row>
     <row r="19">
@@ -1090,19 +1090,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1181988742964353</v>
+        <v>0.1266884024219842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6566604127579738</v>
+        <v>0.5938518863530508</v>
       </c>
       <c r="G19" t="n">
-        <v>0.225140712945591</v>
+        <v>0.2794597112249651</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1181988742964353</v>
+        <v>0.2111473373699736</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4298140883506737</v>
+        <v>0.5192147640245253</v>
       </c>
     </row>
     <row r="20">
@@ -1160,19 +1160,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7137192704203013</v>
+        <v>0.7453672333028902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.105471847739889</v>
+        <v>0.08741124826915712</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1808088818398097</v>
+        <v>0.1672215184279528</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5187140052781425</v>
+        <v>0.5557940641391493</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1356066613798572</v>
+        <v>0.1602539551601214</v>
       </c>
     </row>
     <row r="22">
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3756449948400413</v>
+        <v>0.339382940108893</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3353973168214655</v>
+        <v>0.3726557773744707</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2889576883384933</v>
+        <v>0.2879612825166364</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2889576883384933</v>
+        <v>0.2923914560938154</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2762095550294421</v>
+        <v>0.3167574107683001</v>
       </c>
     </row>
     <row r="23">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3595505617977528</v>
+        <v>0.3437815975733063</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3370786516853932</v>
+        <v>0.3781597573306369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3033707865168539</v>
+        <v>0.2780586450960566</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2855254461335096</v>
+        <v>0.2626109425907201</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2855254461335096</v>
+        <v>0.286484664644422</v>
       </c>
     </row>
     <row r="24">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3042084168336673</v>
+        <v>0.2874978156612237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4100200400801604</v>
+        <v>0.4292953808516009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2857715430861724</v>
+        <v>0.2832068034871755</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2514789579158317</v>
+        <v>0.2496691557057995</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3143486973947896</v>
+        <v>0.3271526867869097</v>
       </c>
     </row>
     <row r="25">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3056915790318696</v>
+        <v>0.2377358490566038</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3981697037810067</v>
+        <v>0.4226415094339623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2961387171871237</v>
+        <v>0.339622641509434</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2787187926467047</v>
+        <v>0.2716981132075472</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3445977799995621</v>
+        <v>0.380377358490566</v>
       </c>
     </row>
     <row r="26">
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5835193829916785</v>
+        <v>0.5154639175257733</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1644002435559164</v>
+        <v>0.2153493699885453</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2520803734524051</v>
+        <v>0.2691867124856815</v>
       </c>
       <c r="H27" t="n">
-        <v>0.450143524022152</v>
+        <v>0.4306987399770905</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1890602800893038</v>
+        <v>0.2422680412371134</v>
       </c>
     </row>
     <row r="28">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.05511069241639189</v>
+        <v>0.08652931854199683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.800753650494583</v>
+        <v>0.7321711568938193</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1441356570890249</v>
+        <v>0.1812995245641838</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08517107009806019</v>
+        <v>0.1057580559957739</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5967399815787656</v>
+        <v>0.4759112519809826</v>
       </c>
     </row>
     <row r="29">
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7194244604316548</v>
+        <v>0.7195709727784942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09352517985611511</v>
+        <v>0.09714208132509673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1870503597122302</v>
+        <v>0.1832869458964089</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5600310171024857</v>
+        <v>0.5887398868187681</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1336073997944502</v>
+        <v>0.1619034688751612</v>
       </c>
     </row>
     <row r="31">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.4851944345344274</v>
+        <v>0.4020100502512564</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2365322868355333</v>
+        <v>0.3322166387493021</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2782732786300393</v>
+        <v>0.2657733109994417</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3784516589368533</v>
+        <v>0.31892797319933</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2523011059579022</v>
+        <v>0.255142378559464</v>
       </c>
     </row>
     <row r="32">
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5240103828682673</v>
+        <v>0.5152868430092752</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1985723556132382</v>
+        <v>0.1927172792854689</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2774172615184945</v>
+        <v>0.291995877705256</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4491517567442291</v>
+        <v>0.4700421445987047</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2515249837767683</v>
+        <v>0.2834077636551014</v>
       </c>
     </row>
     <row r="34">
@@ -1624,10 +1624,10 @@
         <v>0.145985401459854</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08626410086264101</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5485000632884688</v>
+        <v>0.5682066523886533</v>
       </c>
     </row>
     <row r="35">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1142732049036777</v>
+        <v>0.1116031886625332</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6698774080560419</v>
+        <v>0.6775907883082375</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2158493870402802</v>
+        <v>0.2108060230292294</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1618870402802101</v>
+        <v>0.1806908768821966</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5307771812465906</v>
+        <v>0.5270150575730735</v>
       </c>
     </row>
     <row r="36">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1109874826147427</v>
+        <v>0.07019083132265848</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7093184979137691</v>
+        <v>0.7402939241061636</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1796940194714882</v>
+        <v>0.1895152445711779</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1179242002781641</v>
+        <v>0.1579293704759816</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5155156296313186</v>
+        <v>0.6113394986167028</v>
       </c>
     </row>
     <row r="37">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7990867579908676</v>
+        <v>0.8164441456152146</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.05619056766881183</v>
       </c>
       <c r="G37" t="n">
-        <v>0.136986301369863</v>
+        <v>0.1273652867159735</v>
       </c>
       <c r="H37" t="n">
-        <v>0.523991316715323</v>
+        <v>0.5306886946498894</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07376185458377239</v>
+        <v>0.07347997310536931</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsodds_teams.xlsx
+++ b/fantasyAnalyticsodds_teams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,33 +481,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1807647740440324</v>
+        <v>0.3961661341853035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5272305909617613</v>
+        <v>0.3067092651757188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2920046349942063</v>
+        <v>0.2971246006389776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2530706836616454</v>
+        <v>0.3521476748313809</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4745075318655851</v>
+        <v>0.3169329073482428</v>
       </c>
     </row>
     <row r="3">
@@ -516,243 +516,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6550984597387405</v>
+        <v>0.5524619634322795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1187365958276467</v>
+        <v>0.1820493708072083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2261649444336128</v>
+        <v>0.2654886657605121</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5277182036784298</v>
+        <v>0.4778795983689218</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1899785533242347</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5736872443797865</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1741923087480443</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2521204468721693</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4258034213841081</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1916115396228487</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3788187372708758</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3156822810590632</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3054989816700611</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3156822810590632</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2525458248472505</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1586538461538461</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2644230769230769</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2115384615384615</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4532967032967032</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.623532726077566</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1480890224434219</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2283782514790121</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5179069637365575</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1895539487275801</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2021-06-29</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3655957706384709</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3277755185034567</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3066287108580724</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3168496678866748</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2924766165107768</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2021-06-29</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3999920597109735</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2929172621883436</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.3070906781006829</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3619700008030863</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.2929172621883436</v>
+        <v>0.2207296066369154</v>
       </c>
     </row>
   </sheetData>
